--- a/dev/data_quality/mds-template.xlsx
+++ b/dev/data_quality/mds-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bijanrouhani/Downloads/Minimum Standard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dev\data_quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286F989D-646C-E046-B3D5-56E58359D111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A93CC5-FB28-4FC0-876B-6FD9C2BAA532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="6920" windowWidth="33860" windowHeight="19180" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,252 +56,98 @@
   <commentList>
     <comment ref="D1" authorId="0" shapeId="0" xr:uid="{CDFACE79-D1E5-4FFE-BEA3-A5667AB623EF}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     UUID lis to be completed</t>
-        </r>
       </text>
     </comment>
     <comment ref="E1" authorId="1" shapeId="0" xr:uid="{44FBD45B-D55F-48E4-A961-45DAC028A895}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Only the fields having the word "Yes" are considered to be part of the ERMS</t>
-        </r>
       </text>
     </comment>
     <comment ref="C16" authorId="2" shapeId="0" xr:uid="{323D2BB1-5D76-4207-A560-D0CB6B0E6B34}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">[Threaded comment]
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Comment:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">    A trailing space that need to be removed first in the RM, then here</t>
-        </r>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A trailing space that need to be removed first in the RM, then here</t>
       </text>
     </comment>
     <comment ref="C33" authorId="3" shapeId="0" xr:uid="{400E9F18-77A0-4450-ABCF-5F815573CE72}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A trailing space that need to be removed first in the RM, then here</t>
-        </r>
       </text>
     </comment>
     <comment ref="C47" authorId="4" shapeId="0" xr:uid="{63CF54B7-00A3-4458-9493-8E2D9C0E484D}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     'to' in lowercase</t>
-        </r>
       </text>
     </comment>
     <comment ref="C64" authorId="5" shapeId="0" xr:uid="{5594FF8B-47FA-4FAD-AC29-0D90A0842C92}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A trailing space that need to be removed first in the RM, then here</t>
-        </r>
       </text>
     </comment>
     <comment ref="B65" authorId="6" shapeId="0" xr:uid="{9316DFD1-CDFA-4A68-9C79-645F056CD881}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Level 1 is same as level2</t>
-        </r>
       </text>
     </comment>
     <comment ref="C69" authorId="7" shapeId="0" xr:uid="{16194538-CB3E-49C2-9323-5876F882DD9F}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A trailing space that need to be removed first in the RM, then here</t>
-        </r>
       </text>
     </comment>
     <comment ref="C70" authorId="8" shapeId="0" xr:uid="{04AAB84D-D01C-4F95-B318-B8B7A1D99882}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A trailing space that need to be removed first in the RM, then here</t>
-        </r>
       </text>
     </comment>
     <comment ref="C72" authorId="9" shapeId="0" xr:uid="{94E8E0F2-48BF-4322-ADC8-B6E8AA8F0879}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A trailing space that need to be removed first in the RM, then here</t>
-        </r>
       </text>
     </comment>
     <comment ref="C74" authorId="10" shapeId="0" xr:uid="{C9986EEB-7292-4796-A76C-FDF55421398C}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A trailing space that need to be removed first in the RM, then here</t>
-        </r>
       </text>
     </comment>
     <comment ref="C80" authorId="11" shapeId="0" xr:uid="{9405061E-D2A3-46CD-8C4F-993C42FAC7B3}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A trailing space that need to be removed first in the RM, then here</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -1008,6 +854,27 @@
   </si>
   <si>
     <t>MEASUREMENTS</t>
+  </si>
+  <si>
+    <t>Yes (Including ‘Unknown’)</t>
+  </si>
+  <si>
+    <t>Yes (including ‘Unknown’)</t>
+  </si>
+  <si>
+    <t>Yes, dates should be included if available.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dates should be included if available.</t>
+  </si>
+  <si>
+    <t>There are two fields named 'Disturbance Date To ' in the RM. dates should be included if available.</t>
+  </si>
+  <si>
+    <t>There are two fields named 'Disturbance Date On ' in the RM. dates should be included if available.</t>
+  </si>
+  <si>
+    <t>34cfea8d-c2c0-11ea-9026-02e7594ce0a0</t>
   </si>
   <si>
     <r>
@@ -1019,36 +886,15 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>(Including ‘Unknown’)</t>
+      <t>(Including 'Unknown’)</t>
     </r>
-  </si>
-  <si>
-    <t>Yes (Including ‘Unknown’)</t>
-  </si>
-  <si>
-    <t>Yes (including ‘Unknown’)</t>
-  </si>
-  <si>
-    <t>Yes, dates should be included if available.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> dates should be included if available.</t>
-  </si>
-  <si>
-    <t>There are two fields named 'Disturbance Date To ' in the RM. dates should be included if available.</t>
-  </si>
-  <si>
-    <t>There are two fields named 'Disturbance Date On ' in the RM. dates should be included if available.</t>
-  </si>
-  <si>
-    <t>34cfea8d-c2c0-11ea-9026-02e7594ce0a0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1121,12 +967,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1798,23 +1638,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66:XFD66"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.1640625" customWidth="1"/>
-    <col min="6" max="6" width="82.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.109375" customWidth="1"/>
+    <col min="6" max="6" width="82.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>91</v>
       </c>
@@ -1834,7 +1674,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1851,7 +1691,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1868,7 +1708,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1885,7 +1725,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1902,7 +1742,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1919,7 +1759,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -1936,7 +1776,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1950,7 +1790,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -1964,7 +1804,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -1981,7 +1821,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
@@ -1998,7 +1838,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -2015,7 +1855,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
         <v>1</v>
       </c>
@@ -2032,7 +1872,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
@@ -2049,7 +1889,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
         <v>1</v>
       </c>
@@ -2063,10 +1903,10 @@
         <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
         <v>1</v>
       </c>
@@ -2083,7 +1923,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
         <v>1</v>
       </c>
@@ -2100,7 +1940,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
         <v>1</v>
       </c>
@@ -2117,7 +1957,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
         <v>1</v>
       </c>
@@ -2134,7 +1974,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="11" t="s">
         <v>2</v>
       </c>
@@ -2151,7 +1991,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="11" t="s">
         <v>2</v>
       </c>
@@ -2165,7 +2005,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="11" t="s">
         <v>2</v>
       </c>
@@ -2182,7 +2022,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="11" t="s">
         <v>2</v>
       </c>
@@ -2199,7 +2039,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="12" t="s">
         <v>3</v>
       </c>
@@ -2216,7 +2056,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="12" t="s">
         <v>3</v>
       </c>
@@ -2233,7 +2073,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="12" t="s">
         <v>3</v>
       </c>
@@ -2250,7 +2090,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="12" t="s">
         <v>3</v>
       </c>
@@ -2267,7 +2107,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="12" t="s">
         <v>3</v>
       </c>
@@ -2284,7 +2124,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="12" t="s">
         <v>3</v>
       </c>
@@ -2298,7 +2138,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="12" t="s">
         <v>3</v>
       </c>
@@ -2312,7 +2152,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="12" t="s">
         <v>3</v>
       </c>
@@ -2326,7 +2166,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="12" t="s">
         <v>3</v>
       </c>
@@ -2340,7 +2180,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="14" t="s">
         <v>4</v>
       </c>
@@ -2357,7 +2197,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="14" t="s">
         <v>4</v>
       </c>
@@ -2374,7 +2214,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="15.6">
       <c r="A35" s="14" t="s">
         <v>4</v>
       </c>
@@ -2388,10 +2228,10 @@
         <v>130</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="14" t="s">
         <v>4</v>
       </c>
@@ -2408,7 +2248,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="14" t="s">
         <v>4</v>
       </c>
@@ -2425,7 +2265,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="14" t="s">
         <v>4</v>
       </c>
@@ -2442,7 +2282,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="14" t="s">
         <v>4</v>
       </c>
@@ -2456,7 +2296,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="14" t="s">
         <v>4</v>
       </c>
@@ -2470,7 +2310,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" s="14" t="s">
         <v>4</v>
       </c>
@@ -2484,7 +2324,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" s="14" t="s">
         <v>4</v>
       </c>
@@ -2498,7 +2338,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="14" t="s">
         <v>4</v>
       </c>
@@ -2512,7 +2352,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" s="14" t="s">
         <v>4</v>
       </c>
@@ -2526,7 +2366,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="14" t="s">
         <v>4</v>
       </c>
@@ -2540,7 +2380,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="14" t="s">
         <v>4</v>
       </c>
@@ -2554,7 +2394,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="14" t="s">
         <v>4</v>
       </c>
@@ -2568,7 +2408,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="14" t="s">
         <v>4</v>
       </c>
@@ -2585,7 +2425,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" s="14" t="s">
         <v>4</v>
       </c>
@@ -2602,7 +2442,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" s="14" t="s">
         <v>4</v>
       </c>
@@ -2619,7 +2459,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" s="14" t="s">
         <v>4</v>
       </c>
@@ -2636,7 +2476,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" s="14" t="s">
         <v>4</v>
       </c>
@@ -2653,7 +2493,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" s="14" t="s">
         <v>4</v>
       </c>
@@ -2667,10 +2507,10 @@
         <v>199</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="14" t="s">
         <v>4</v>
       </c>
@@ -2687,7 +2527,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" s="14" t="s">
         <v>4</v>
       </c>
@@ -2704,7 +2544,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" s="14" t="s">
         <v>4</v>
       </c>
@@ -2721,7 +2561,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" s="14" t="s">
         <v>4</v>
       </c>
@@ -2738,7 +2578,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" s="14" t="s">
         <v>4</v>
       </c>
@@ -2752,7 +2592,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" s="14" t="s">
         <v>4</v>
       </c>
@@ -2766,7 +2606,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" s="14" t="s">
         <v>4</v>
       </c>
@@ -2780,7 +2620,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" s="14" t="s">
         <v>4</v>
       </c>
@@ -2794,7 +2634,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" s="14" t="s">
         <v>4</v>
       </c>
@@ -2808,7 +2648,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" s="14" t="s">
         <v>4</v>
       </c>
@@ -2822,7 +2662,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" s="14" t="s">
         <v>4</v>
       </c>
@@ -2836,7 +2676,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="14" t="s">
         <v>4</v>
       </c>
@@ -2853,7 +2693,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="21" t="s">
         <v>5</v>
       </c>
@@ -2870,7 +2710,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="21" t="s">
         <v>5</v>
       </c>
@@ -2887,7 +2727,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="21" t="s">
         <v>5</v>
       </c>
@@ -2904,7 +2744,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="21" t="s">
         <v>5</v>
       </c>
@@ -2921,7 +2761,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="21" t="s">
         <v>5</v>
       </c>
@@ -2938,7 +2778,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="21" t="s">
         <v>5</v>
       </c>
@@ -2952,13 +2792,13 @@
         <v>151</v>
       </c>
       <c r="E71" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="F71" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="F71" s="33" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="21" t="s">
         <v>5</v>
       </c>
@@ -2972,14 +2812,14 @@
         <v>152</v>
       </c>
       <c r="E72" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F72" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G72" s="33"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="21" t="s">
         <v>5</v>
       </c>
@@ -2993,14 +2833,14 @@
         <v>153</v>
       </c>
       <c r="E73" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F73" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G73" s="33"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" s="21" t="s">
         <v>5</v>
       </c>
@@ -3014,13 +2854,13 @@
         <v>153</v>
       </c>
       <c r="E74" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="F74" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="F74" s="33" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="21" t="s">
         <v>5</v>
       </c>
@@ -3040,7 +2880,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" s="21" t="s">
         <v>5</v>
       </c>
@@ -3057,7 +2897,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" s="21" t="s">
         <v>5</v>
       </c>
@@ -3074,7 +2914,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" s="21" t="s">
         <v>5</v>
       </c>
@@ -3091,7 +2931,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" s="21" t="s">
         <v>5</v>
       </c>
@@ -3111,7 +2951,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" s="21" t="s">
         <v>5</v>
       </c>
@@ -3128,7 +2968,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6">
       <c r="A81" s="21" t="s">
         <v>5</v>
       </c>
@@ -3142,7 +2982,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6">
       <c r="A82" s="21" t="s">
         <v>5</v>
       </c>
@@ -3156,7 +2996,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6">
       <c r="A83" s="21" t="s">
         <v>5</v>
       </c>
@@ -3170,7 +3010,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6">
       <c r="A84" s="21" t="s">
         <v>5</v>
       </c>
@@ -3184,7 +3024,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6">
       <c r="A85" s="21" t="s">
         <v>5</v>
       </c>
@@ -3204,7 +3044,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6">
       <c r="A86" s="26" t="s">
         <v>6</v>
       </c>
@@ -3218,7 +3058,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6">
       <c r="A87" s="26" t="s">
         <v>6</v>
       </c>
@@ -3232,7 +3072,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6">
       <c r="A88" s="26" t="s">
         <v>6</v>
       </c>
@@ -3246,7 +3086,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6">
       <c r="A89" s="26" t="s">
         <v>6</v>
       </c>
@@ -3260,7 +3100,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6">
       <c r="A90" s="26" t="s">
         <v>6</v>
       </c>
@@ -3274,7 +3114,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6">
       <c r="A91" s="26" t="s">
         <v>6</v>
       </c>
@@ -3288,7 +3128,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6">
       <c r="A92" s="26" t="s">
         <v>6</v>
       </c>
@@ -3302,7 +3142,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6">
       <c r="A93" s="26" t="s">
         <v>6</v>
       </c>
@@ -3316,7 +3156,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6">
       <c r="A94" s="26" t="s">
         <v>6</v>
       </c>
@@ -3333,7 +3173,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6">
       <c r="A95" s="26" t="s">
         <v>6</v>
       </c>
@@ -3347,7 +3187,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6">
       <c r="A96" s="26" t="s">
         <v>6</v>
       </c>
@@ -3361,7 +3201,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4">
       <c r="A97" s="26" t="s">
         <v>6</v>
       </c>
@@ -3375,7 +3215,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4">
       <c r="A98" s="26" t="s">
         <v>6</v>
       </c>
@@ -3386,10 +3226,10 @@
         <v>89</v>
       </c>
       <c r="D98" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="27" t="s">
         <v>7</v>
       </c>

--- a/dev/data_quality/mds-template.xlsx
+++ b/dev/data_quality/mds-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\eamena-arches-dev\dev\data_quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A93CC5-FB28-4FC0-876B-6FD9C2BAA532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192253E9-D5D2-49FA-89F0-44DA37067C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E0C3C69-C562-4061-B01F-1E26B463065A}"/>
   </bookViews>
@@ -971,7 +971,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1118,12 +1118,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1157,7 +1151,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1168,9 +1162,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1204,30 +1195,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="26" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="27" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1257,6 +1242,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1638,16 +1635,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42076D7F-BEF1-41ED-B129-2E241988AEAC}">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" style="35" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="67.109375" customWidth="1"/>
     <col min="6" max="6" width="82.44140625" bestFit="1" customWidth="1"/>
@@ -1661,13 +1658,13 @@
       <c r="B1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="32" t="s">
         <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="29" t="s">
         <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1681,13 +1678,13 @@
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="33" t="s">
         <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="30" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1698,7 +1695,7 @@
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="33" t="s">
         <v>25</v>
       </c>
       <c r="D3" t="s">
@@ -1715,13 +1712,13 @@
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="33" t="s">
         <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="30" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1732,13 +1729,13 @@
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="33" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="30" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1749,13 +1746,13 @@
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="33" t="s">
         <v>174</v>
       </c>
       <c r="D6" t="s">
         <v>175</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="30" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1766,7 +1763,7 @@
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="33" t="s">
         <v>28</v>
       </c>
       <c r="D7" t="s">
@@ -1783,7 +1780,7 @@
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="33" t="s">
         <v>176</v>
       </c>
       <c r="D8" t="s">
@@ -1797,7 +1794,7 @@
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="33" t="s">
         <v>29</v>
       </c>
       <c r="D9" t="s">
@@ -1805,13 +1802,13 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="33" t="s">
         <v>30</v>
       </c>
       <c r="D10" t="s">
@@ -1822,13 +1819,13 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="33" t="s">
         <v>31</v>
       </c>
       <c r="D11" t="s">
@@ -1839,13 +1836,13 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="33" t="s">
         <v>32</v>
       </c>
       <c r="D12" t="s">
@@ -1856,13 +1853,13 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="34" t="s">
         <v>33</v>
       </c>
       <c r="D13" t="s">
@@ -1873,13 +1870,13 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="34" t="s">
         <v>34</v>
       </c>
       <c r="D14" t="s">
@@ -1890,13 +1887,13 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D15" t="s">
@@ -1907,13 +1904,13 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="33" t="s">
         <v>172</v>
       </c>
       <c r="D16" t="s">
@@ -1924,13 +1921,13 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="34" t="s">
         <v>36</v>
       </c>
       <c r="D17" t="s">
@@ -1941,13 +1938,13 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="34" t="s">
         <v>37</v>
       </c>
       <c r="D18" t="s">
@@ -1958,13 +1955,13 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="34" t="s">
         <v>38</v>
       </c>
       <c r="D19" t="s">
@@ -1975,13 +1972,13 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="33" t="s">
         <v>39</v>
       </c>
       <c r="D20" t="s">
@@ -1992,13 +1989,13 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="34" t="s">
         <v>40</v>
       </c>
       <c r="D21" t="s">
@@ -2006,30 +2003,30 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="33" t="s">
         <v>180</v>
       </c>
       <c r="D22" t="s">
         <v>179</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="33" t="s">
         <v>41</v>
       </c>
       <c r="D23" t="s">
@@ -2040,30 +2037,30 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="34" t="s">
         <v>181</v>
       </c>
       <c r="D24" t="s">
         <v>182</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="30" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="34" t="s">
         <v>42</v>
       </c>
       <c r="D25" t="s">
@@ -2074,30 +2071,30 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="33" t="s">
         <v>43</v>
       </c>
       <c r="D26" t="s">
         <v>124</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="34" t="s">
         <v>44</v>
       </c>
       <c r="D27" t="s">
@@ -2108,13 +2105,13 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D28" t="s">
@@ -2125,13 +2122,13 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="34" t="s">
         <v>46</v>
       </c>
       <c r="D29" t="s">
@@ -2139,13 +2136,13 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="34" t="s">
         <v>47</v>
       </c>
       <c r="D30" t="s">
@@ -2153,13 +2150,13 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="34" t="s">
         <v>186</v>
       </c>
       <c r="D31" t="s">
@@ -2167,13 +2164,13 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="34" t="s">
         <v>185</v>
       </c>
       <c r="D32" t="s">
@@ -2181,13 +2178,13 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="4" t="s">
+      <c r="A33" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="33" t="s">
         <v>187</v>
       </c>
       <c r="D33" t="s">
@@ -2198,13 +2195,13 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="A34" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="33" t="s">
         <v>48</v>
       </c>
       <c r="D34" t="s">
@@ -2215,30 +2212,30 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.6">
-      <c r="A35" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="15" t="s">
+      <c r="A35" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="34" t="s">
         <v>49</v>
       </c>
       <c r="D35" t="s">
         <v>130</v>
       </c>
-      <c r="E35" s="34" t="s">
+      <c r="E35" s="31" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="15" t="s">
+      <c r="A36" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="33" t="s">
         <v>50</v>
       </c>
       <c r="D36" t="s">
@@ -2249,13 +2246,13 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="15" t="s">
+      <c r="A37" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="34" t="s">
         <v>191</v>
       </c>
       <c r="D37" t="s">
@@ -2266,13 +2263,13 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="15" t="s">
+      <c r="A38" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="34" t="s">
         <v>192</v>
       </c>
       <c r="D38" t="s">
@@ -2283,13 +2280,13 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="15" t="s">
+      <c r="A39" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="34" t="s">
         <v>51</v>
       </c>
       <c r="D39" t="s">
@@ -2297,13 +2294,13 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="17" t="s">
+      <c r="A40" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="34" t="s">
         <v>193</v>
       </c>
       <c r="D40" t="s">
@@ -2311,13 +2308,13 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="17" t="s">
+      <c r="A41" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="34" t="s">
         <v>196</v>
       </c>
       <c r="D41" t="s">
@@ -2325,13 +2322,13 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="17" t="s">
+      <c r="A42" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="34" t="s">
         <v>52</v>
       </c>
       <c r="D42" t="s">
@@ -2339,13 +2336,13 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="17" t="s">
+      <c r="A43" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="34" t="s">
         <v>53</v>
       </c>
       <c r="D43" t="s">
@@ -2353,13 +2350,13 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="17" t="s">
+      <c r="A44" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="34" t="s">
         <v>54</v>
       </c>
       <c r="D44" t="s">
@@ -2367,13 +2364,13 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="17" t="s">
+      <c r="A45" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="34" t="s">
         <v>55</v>
       </c>
       <c r="D45" t="s">
@@ -2381,13 +2378,13 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="17" t="s">
+      <c r="A46" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="34" t="s">
         <v>56</v>
       </c>
       <c r="D46" t="s">
@@ -2395,13 +2392,13 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="17" t="s">
+      <c r="A47" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="34" t="s">
         <v>197</v>
       </c>
       <c r="D47" t="s">
@@ -2409,13 +2406,13 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="7" t="s">
+      <c r="A48" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="34" t="s">
         <v>57</v>
       </c>
       <c r="D48" t="s">
@@ -2426,13 +2423,13 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="7" t="s">
+      <c r="A49" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="34" t="s">
         <v>58</v>
       </c>
       <c r="D49" t="s">
@@ -2443,13 +2440,13 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="7" t="s">
+      <c r="A50" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="34" t="s">
         <v>59</v>
       </c>
       <c r="D50" t="s">
@@ -2460,13 +2457,13 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="7" t="s">
+      <c r="A51" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="34" t="s">
         <v>60</v>
       </c>
       <c r="D51" t="s">
@@ -2477,13 +2474,13 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="7" t="s">
+      <c r="A52" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="33" t="s">
         <v>61</v>
       </c>
       <c r="D52" t="s">
@@ -2494,30 +2491,30 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="7" t="s">
+      <c r="A53" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="34" t="s">
         <v>200</v>
       </c>
       <c r="D53" t="s">
         <v>199</v>
       </c>
-      <c r="E53" s="33" t="s">
+      <c r="E53" s="30" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="7" t="s">
+      <c r="A54" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="34" t="s">
         <v>201</v>
       </c>
       <c r="D54" t="s">
@@ -2528,13 +2525,13 @@
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="7" t="s">
+      <c r="A55" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="34" t="s">
         <v>62</v>
       </c>
       <c r="D55" t="s">
@@ -2545,13 +2542,13 @@
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B56" s="7" t="s">
+      <c r="A56" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C56" s="34" t="s">
         <v>203</v>
       </c>
       <c r="D56" t="s">
@@ -2562,13 +2559,13 @@
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="7" t="s">
+      <c r="A57" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="34" t="s">
         <v>205</v>
       </c>
       <c r="D57" t="s">
@@ -2579,13 +2576,13 @@
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="19" t="s">
+      <c r="A58" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="34" t="s">
         <v>63</v>
       </c>
       <c r="D58" t="s">
@@ -2593,13 +2590,13 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="19" t="s">
+      <c r="A59" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="34" t="s">
         <v>64</v>
       </c>
       <c r="D59" t="s">
@@ -2607,13 +2604,13 @@
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="19" t="s">
+      <c r="A60" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D60" t="s">
@@ -2621,13 +2618,13 @@
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B61" s="20" t="s">
+      <c r="A61" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="34" t="s">
         <v>66</v>
       </c>
       <c r="D61" t="s">
@@ -2635,13 +2632,13 @@
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="20" t="s">
+      <c r="A62" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="34" t="s">
         <v>67</v>
       </c>
       <c r="D62" t="s">
@@ -2649,13 +2646,13 @@
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B63" s="20" t="s">
+      <c r="A63" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="34" t="s">
         <v>68</v>
       </c>
       <c r="D63" t="s">
@@ -2663,13 +2660,13 @@
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="20" t="s">
+      <c r="A64" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="34" t="s">
         <v>208</v>
       </c>
       <c r="D64" t="s">
@@ -2677,13 +2674,13 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="8" t="s">
+      <c r="A65" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="34" t="s">
         <v>210</v>
       </c>
       <c r="D65" t="s">
@@ -2694,13 +2691,13 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="34" t="s">
         <v>211</v>
       </c>
       <c r="D66" t="s">
@@ -2711,13 +2708,13 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="21" t="s">
+      <c r="A67" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="34" t="s">
         <v>69</v>
       </c>
       <c r="D67" t="s">
@@ -2728,13 +2725,13 @@
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="34" t="s">
         <v>70</v>
       </c>
       <c r="D68" t="s">
@@ -2745,13 +2742,13 @@
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="34" t="s">
         <v>214</v>
       </c>
       <c r="D69" t="s">
@@ -2762,13 +2759,13 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="21" t="s">
+      <c r="A70" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="34" t="s">
         <v>215</v>
       </c>
       <c r="D70" t="s">
@@ -2779,95 +2776,95 @@
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="21" t="s">
+      <c r="A71" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C71" s="23" t="s">
+      <c r="C71" s="33" t="s">
         <v>71</v>
       </c>
       <c r="D71" t="s">
         <v>151</v>
       </c>
-      <c r="E71" s="33" t="s">
+      <c r="E71" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="F71" s="33" t="s">
+      <c r="F71" s="30" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="23" t="s">
+      <c r="C72" s="33" t="s">
         <v>217</v>
       </c>
       <c r="D72" t="s">
         <v>152</v>
       </c>
-      <c r="E72" s="33" t="s">
+      <c r="E72" s="30" t="s">
         <v>235</v>
       </c>
       <c r="F72" t="s">
         <v>237</v>
       </c>
-      <c r="G72" s="33"/>
+      <c r="G72" s="30"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="21" t="s">
+      <c r="A73" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C73" s="33" t="s">
         <v>72</v>
       </c>
       <c r="D73" t="s">
         <v>153</v>
       </c>
-      <c r="E73" s="33" t="s">
+      <c r="E73" s="30" t="s">
         <v>235</v>
       </c>
       <c r="F73" t="s">
         <v>238</v>
       </c>
-      <c r="G73" s="33"/>
+      <c r="G73" s="30"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C74" s="23" t="s">
+      <c r="C74" s="33" t="s">
         <v>218</v>
       </c>
       <c r="D74" t="s">
         <v>153</v>
       </c>
-      <c r="E74" s="33" t="s">
+      <c r="E74" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="F74" s="33" t="s">
+      <c r="F74" s="30" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="21" t="s">
+      <c r="A75" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="31" t="s">
+      <c r="C75" s="35" t="s">
         <v>169</v>
       </c>
       <c r="D75" t="s">
@@ -2876,52 +2873,52 @@
       <c r="E75" t="s">
         <v>110</v>
       </c>
-      <c r="F75" s="23" t="s">
+      <c r="F75" s="20" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="21" t="s">
+      <c r="A76" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B76" s="22" t="s">
+      <c r="B76" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C76" s="34" t="s">
         <v>74</v>
       </c>
       <c r="D76" t="s">
         <v>221</v>
       </c>
-      <c r="E76" s="33" t="s">
+      <c r="E76" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="21" t="s">
+      <c r="A77" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="16" t="s">
+      <c r="C77" s="34" t="s">
         <v>75</v>
       </c>
       <c r="D77" t="s">
         <v>156</v>
       </c>
-      <c r="E77" s="33" t="s">
+      <c r="E77" s="30" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="21" t="s">
+      <c r="A78" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="B78" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="34" t="s">
         <v>76</v>
       </c>
       <c r="D78" t="s">
@@ -2932,13 +2929,13 @@
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="21" t="s">
+      <c r="A79" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C79" s="31" t="s">
+      <c r="C79" s="35" t="s">
         <v>171</v>
       </c>
       <c r="D79" t="s">
@@ -2947,35 +2944,35 @@
       <c r="E79" t="s">
         <v>106</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F79" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="21" t="s">
+      <c r="A80" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B80" s="24" t="s">
+      <c r="B80" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="34" t="s">
         <v>219</v>
       </c>
       <c r="D80" t="s">
         <v>157</v>
       </c>
-      <c r="E80" s="33" t="s">
+      <c r="E80" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="21" t="s">
+      <c r="A81" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="24" t="s">
+      <c r="B81" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="34" t="s">
         <v>220</v>
       </c>
       <c r="D81" t="s">
@@ -2983,13 +2980,13 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="21" t="s">
+      <c r="A82" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="25" t="s">
+      <c r="B82" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="34" t="s">
         <v>78</v>
       </c>
       <c r="D82" t="s">
@@ -2997,13 +2994,13 @@
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="21" t="s">
+      <c r="A83" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B83" s="25" t="s">
+      <c r="B83" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="34" t="s">
         <v>79</v>
       </c>
       <c r="D83" t="s">
@@ -3011,13 +3008,13 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="21" t="s">
+      <c r="A84" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="25" t="s">
+      <c r="B84" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="34" t="s">
         <v>80</v>
       </c>
       <c r="D84" t="s">
@@ -3025,13 +3022,13 @@
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="21" t="s">
+      <c r="A85" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B85" s="21" t="s">
+      <c r="B85" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="34" t="s">
         <v>222</v>
       </c>
       <c r="D85" t="s">
@@ -3045,13 +3042,13 @@
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="26" t="s">
+      <c r="A86" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B86" s="26" t="s">
+      <c r="B86" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="34" t="s">
         <v>81</v>
       </c>
       <c r="D86" t="s">
@@ -3059,13 +3056,13 @@
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="26" t="s">
+      <c r="A87" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B87" s="28" t="s">
+      <c r="B87" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="34" t="s">
         <v>82</v>
       </c>
       <c r="D87" t="s">
@@ -3073,13 +3070,13 @@
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="26" t="s">
+      <c r="A88" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="28" t="s">
+      <c r="B88" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="34" t="s">
         <v>83</v>
       </c>
       <c r="D88" t="s">
@@ -3087,13 +3084,13 @@
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="26" t="s">
+      <c r="A89" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="34" t="s">
         <v>84</v>
       </c>
       <c r="D89" t="s">
@@ -3101,13 +3098,13 @@
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="26" t="s">
+      <c r="A90" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="34" t="s">
         <v>85</v>
       </c>
       <c r="D90" t="s">
@@ -3115,13 +3112,13 @@
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="26" t="s">
+      <c r="A91" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B91" s="26" t="s">
+      <c r="B91" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="34" t="s">
         <v>231</v>
       </c>
       <c r="D91" t="s">
@@ -3129,13 +3126,13 @@
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="26" t="s">
+      <c r="A92" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B92" s="29" t="s">
+      <c r="B92" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="34" t="s">
         <v>86</v>
       </c>
       <c r="D92" t="s">
@@ -3143,13 +3140,13 @@
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="26" t="s">
+      <c r="A93" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="29" t="s">
+      <c r="B93" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="34" t="s">
         <v>87</v>
       </c>
       <c r="D93" t="s">
@@ -3157,13 +3154,13 @@
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="26" t="s">
+      <c r="A94" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B94" s="29" t="s">
+      <c r="B94" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="34" t="s">
         <v>223</v>
       </c>
       <c r="D94" t="s">
@@ -3174,13 +3171,13 @@
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="26" t="s">
+      <c r="A95" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B95" s="30" t="s">
+      <c r="B95" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="34" t="s">
         <v>229</v>
       </c>
       <c r="D95" t="s">
@@ -3188,13 +3185,13 @@
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="26" t="s">
+      <c r="A96" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B96" s="30" t="s">
+      <c r="B96" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="34" t="s">
         <v>228</v>
       </c>
       <c r="D96" t="s">
@@ -3202,13 +3199,13 @@
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="26" t="s">
+      <c r="A97" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B97" s="30" t="s">
+      <c r="B97" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="34" t="s">
         <v>88</v>
       </c>
       <c r="D97" t="s">
@@ -3216,13 +3213,13 @@
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="26" t="s">
+      <c r="A98" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B98" s="30" t="s">
+      <c r="B98" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="34" t="s">
         <v>89</v>
       </c>
       <c r="D98" t="s">
@@ -3230,13 +3227,13 @@
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="27" t="s">
+      <c r="A99" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B99" s="27" t="s">
+      <c r="B99" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="34" t="s">
         <v>90</v>
       </c>
       <c r="D99" t="s">
